--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H2">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N2">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O2">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P2">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q2">
-        <v>23.56068811318444</v>
+        <v>0.4386710277733333</v>
       </c>
       <c r="R2">
-        <v>212.04619301866</v>
+        <v>3.948039249959999</v>
       </c>
       <c r="S2">
-        <v>0.2413120889677924</v>
+        <v>0.01542602298988759</v>
       </c>
       <c r="T2">
-        <v>0.2413120889677924</v>
+        <v>0.01542602298988759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H3">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.71831</v>
       </c>
       <c r="O3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q3">
-        <v>9.690550955077777</v>
+        <v>1.743050988813333</v>
       </c>
       <c r="R3">
-        <v>87.2149585957</v>
+        <v>15.68745889932</v>
       </c>
       <c r="S3">
-        <v>0.09925207120372985</v>
+        <v>0.06129500906969932</v>
       </c>
       <c r="T3">
-        <v>0.09925207120372986</v>
+        <v>0.0612950090696993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H4">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>27.368585</v>
       </c>
       <c r="O4">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P4">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q4">
-        <v>3.130570799994444</v>
+        <v>0.5630995135133333</v>
       </c>
       <c r="R4">
-        <v>28.17513719995</v>
+        <v>5.06789562162</v>
       </c>
       <c r="S4">
-        <v>0.03206377401963439</v>
+        <v>0.01980159502473357</v>
       </c>
       <c r="T4">
-        <v>0.03206377401963439</v>
+        <v>0.01980159502473357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.675792</v>
       </c>
       <c r="I5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N5">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O5">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P5">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q5">
-        <v>38.35256263375288</v>
+        <v>3.969938214062221</v>
       </c>
       <c r="R5">
-        <v>345.173063703776</v>
+        <v>35.72944392655999</v>
       </c>
       <c r="S5">
-        <v>0.3928126785583988</v>
+        <v>0.1396042917842314</v>
       </c>
       <c r="T5">
-        <v>0.3928126785583987</v>
+        <v>0.1396042917842314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.675792</v>
       </c>
       <c r="I6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.71831</v>
       </c>
       <c r="O6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q6">
         <v>15.77447401683555</v>
@@ -818,10 +818,10 @@
         <v>141.97026615152</v>
       </c>
       <c r="S6">
-        <v>0.1615645204878635</v>
+        <v>0.5547149992381653</v>
       </c>
       <c r="T6">
-        <v>0.1615645204878635</v>
+        <v>0.5547149992381653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.675792</v>
       </c>
       <c r="I7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>27.368585</v>
       </c>
       <c r="O7">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P7">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q7">
         <v>5.096006199368889</v>
@@ -880,10 +880,10 @@
         <v>45.86405579432</v>
       </c>
       <c r="S7">
-        <v>0.05219405712833902</v>
+        <v>0.1792028737049247</v>
       </c>
       <c r="T7">
-        <v>0.05219405712833902</v>
+        <v>0.1792028737049247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.057467</v>
       </c>
       <c r="I8">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J8">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N8">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O8">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P8">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q8">
-        <v>1.315203030491778</v>
+        <v>0.1361388760344444</v>
       </c>
       <c r="R8">
-        <v>11.836827274426</v>
+        <v>1.22524988431</v>
       </c>
       <c r="S8">
-        <v>0.01347050600475208</v>
+        <v>0.004787372081955534</v>
       </c>
       <c r="T8">
-        <v>0.01347050600475208</v>
+        <v>0.004787372081955533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.057467</v>
       </c>
       <c r="I9">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J9">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.71831</v>
       </c>
       <c r="O9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q9">
         <v>0.5409452356411111</v>
@@ -1004,10 +1004,10 @@
         <v>4.868507120769999</v>
       </c>
       <c r="S9">
-        <v>0.005540441951552491</v>
+        <v>0.01902253194980024</v>
       </c>
       <c r="T9">
-        <v>0.005540441951552492</v>
+        <v>0.01902253194980024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.057467</v>
       </c>
       <c r="I10">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J10">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>27.368585</v>
       </c>
       <c r="O10">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P10">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q10">
         <v>0.1747544971327778</v>
@@ -1066,10 +1066,10 @@
         <v>1.572790474195</v>
       </c>
       <c r="S10">
-        <v>0.001789861677937511</v>
+        <v>0.006145304156602317</v>
       </c>
       <c r="T10">
-        <v>0.001789861677937511</v>
+        <v>0.006145304156602316</v>
       </c>
     </row>
   </sheetData>
